--- a/ExpCurvFitting/ExpCurvFitting.Web/wwwroot/data_templates/data_template_poly.xlsx
+++ b/ExpCurvFitting/ExpCurvFitting.Web/wwwroot/data_templates/data_template_poly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>xmid</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>yrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.5</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -102,9 +105,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -421,9 +421,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -437,92 +437,92 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="B2" s="4">
         <v>0.05</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="D2" s="4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="B3" s="4">
         <v>0.05</v>
       </c>
       <c r="C3" s="4">
-        <v>-6.42</v>
+        <v>2.25</v>
       </c>
       <c r="D3" s="4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>0.05</v>
       </c>
       <c r="C4" s="4">
-        <v>-17.73</v>
+        <v>3.5</v>
       </c>
       <c r="D4" s="4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="B5" s="4">
         <v>0.05</v>
       </c>
       <c r="C5" s="4">
-        <v>-33.86</v>
+        <v>10.25</v>
       </c>
       <c r="D5" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>0.05</v>
       </c>
-      <c r="C6" s="5">
-        <v>-54.75</v>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="B7" s="4">
         <v>0.05</v>
       </c>
       <c r="C7" s="4">
-        <v>-80.34</v>
+        <v>17.25</v>
       </c>
       <c r="D7" s="4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/ExpCurvFitting/ExpCurvFitting.Web/wwwroot/data_templates/data_template_poly.xlsx
+++ b/ExpCurvFitting/ExpCurvFitting.Web/wwwroot/data_templates/data_template_poly.xlsx
@@ -446,7 +446,7 @@
         <v>-1.5</v>
       </c>
       <c r="B2" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <v>2.25</v>
@@ -460,7 +460,7 @@
         <v>0.5</v>
       </c>
       <c r="B3" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <v>2.25</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
         <v>3.5</v>
@@ -488,7 +488,7 @@
         <v>2.5</v>
       </c>
       <c r="B5" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4">
         <v>10.25</v>
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -516,7 +516,7 @@
         <v>3.5</v>
       </c>
       <c r="B7" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4">
         <v>17.25</v>
